--- a/book1.xlsx
+++ b/book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AE mono" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +126,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -245,16 +238,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +552,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,10 +654,10 @@
       <c r="C4" s="11">
         <v>2638</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="17">
         <v>0.8542728858149583</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="13">
@@ -687,10 +680,10 @@
       <c r="C5" s="11">
         <v>2244</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="17">
         <v>0.92311151554803494</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="13">
@@ -713,10 +706,10 @@
       <c r="C6" s="11">
         <v>2558</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="17">
         <v>0.80435147671159524</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="13">
@@ -739,10 +732,10 @@
       <c r="C7" s="11">
         <v>2567</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="17">
         <v>0.90135718267818554</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="13">
@@ -765,19 +758,19 @@
       <c r="C8" s="11">
         <v>1231</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>6.7032819577602418E-2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>5.3065776727407865E-2</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>8.099986242779697E-2</v>
       </c>
       <c r="I8" s="1"/>
@@ -799,10 +792,10 @@
       <c r="C9" s="11">
         <v>1231</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="17">
         <v>0</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="13">
@@ -1013,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1268,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
